--- a/Data/Output/Route Tracker-Output.xlsx
+++ b/Data/Output/Route Tracker-Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Capstone_4\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0CA1C6-18EB-4A8C-B430-425C594961D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED57CAC-4B60-4B1A-8A0C-AD95F0B86412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Output - Ola" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="CombinedResults" sheetId="12" r:id="rId5"/>
     <sheet name="JoinedPrices" sheetId="13" r:id="rId6"/>
     <sheet name="MergedPrices" sheetId="14" r:id="rId7"/>
+    <sheet name="JoinedPrices1" sheetId="15" r:id="rId8"/>
+    <sheet name="MergedPrices1" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Output - Ola'!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="171">
   <si>
     <t>XYZ</t>
   </si>
@@ -115,6 +117,339 @@
     <t>Uber</t>
   </si>
   <si>
+    <t>₹888.40</t>
+  </si>
+  <si>
+    <t>₹1,299.15</t>
+  </si>
+  <si>
+    <t>₹1,976.55</t>
+  </si>
+  <si>
+    <t>ITPL</t>
+  </si>
+  <si>
+    <t>₹687.95</t>
+  </si>
+  <si>
+    <t>₹1,057.38</t>
+  </si>
+  <si>
+    <t>₹1,686.79</t>
+  </si>
+  <si>
+    <t>ECITY</t>
+  </si>
+  <si>
+    <t>₹947.79</t>
+  </si>
+  <si>
+    <t>₹1,447.51</t>
+  </si>
+  <si>
+    <t>₹2,031.87</t>
+  </si>
+  <si>
+    <t>Manyata</t>
+  </si>
+  <si>
+    <t>₹634.34</t>
+  </si>
+  <si>
+    <t>₹913.44</t>
+  </si>
+  <si>
+    <t>₹1,437.83</t>
+  </si>
+  <si>
+    <t>Bannarghatta</t>
+  </si>
+  <si>
+    <t>₹915.36</t>
+  </si>
+  <si>
+    <t>₹1,340.07</t>
+  </si>
+  <si>
+    <t>₹2,033.72</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>₹671.29</t>
+  </si>
+  <si>
+    <t>₹1,005.50</t>
+  </si>
+  <si>
+    <t>₹1,516.17</t>
+  </si>
+  <si>
+    <t>₹1,494.88</t>
+  </si>
+  <si>
+    <t>₹1,748.14</t>
+  </si>
+  <si>
+    <t>₹1,217.51</t>
+  </si>
+  <si>
+    <t>₹1,464.83</t>
+  </si>
+  <si>
+    <t>₹2,740.48</t>
+  </si>
+  <si>
+    <t>₹3,032.79</t>
+  </si>
+  <si>
+    <t>₹1,174.71</t>
+  </si>
+  <si>
+    <t>₹1,293.60</t>
+  </si>
+  <si>
+    <t>₹1,557.73</t>
+  </si>
+  <si>
+    <t>₹1,813.37</t>
+  </si>
+  <si>
+    <t>₹1,182.17</t>
+  </si>
+  <si>
+    <t>₹1,423.54</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹799</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹962</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹956</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1704</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹770</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹775</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1475</t>
+  </si>
+  <si>
+    <t>₹930.16</t>
+  </si>
+  <si>
+    <t>₹1,341.81</t>
+  </si>
+  <si>
+    <t>₹2,020.28</t>
+  </si>
+  <si>
+    <t>₹727.95</t>
+  </si>
+  <si>
+    <t>₹1,097.38</t>
+  </si>
+  <si>
+    <t>₹1,726.79</t>
+  </si>
+  <si>
+    <t>₹1,077.05</t>
+  </si>
+  <si>
+    <t>₹1,577.67</t>
+  </si>
+  <si>
+    <t>₹2,261.16</t>
+  </si>
+  <si>
+    <t>₹674.34</t>
+  </si>
+  <si>
+    <t>₹953.44</t>
+  </si>
+  <si>
+    <t>₹1,477.83</t>
+  </si>
+  <si>
+    <t>₹955.36</t>
+  </si>
+  <si>
+    <t>₹1,380.07</t>
+  </si>
+  <si>
+    <t>₹2,073.72</t>
+  </si>
+  <si>
+    <t>₹744.59</t>
+  </si>
+  <si>
+    <t>₹1,078.79</t>
+  </si>
+  <si>
+    <t>₹1,626.79</t>
+  </si>
+  <si>
+    <t>₹1,087.53</t>
+  </si>
+  <si>
+    <t>₹1,630.05</t>
+  </si>
+  <si>
+    <t>₹2,019.52</t>
+  </si>
+  <si>
+    <t>₹1,409.67</t>
+  </si>
+  <si>
+    <t>₹1,567.83</t>
+  </si>
+  <si>
+    <t>₹2,780.48</t>
+  </si>
+  <si>
+    <t>₹3,135.79</t>
+  </si>
+  <si>
+    <t>₹1,403.05</t>
+  </si>
+  <si>
+    <t>₹1,396.60</t>
+  </si>
+  <si>
+    <t>₹1,697.18</t>
+  </si>
+  <si>
+    <t>₹2,092.00</t>
+  </si>
+  <si>
+    <t>₹874.81</t>
+  </si>
+  <si>
+    <t>₹1,222.17</t>
+  </si>
+  <si>
+    <t>₹1,526.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹968</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1731</t>
+  </si>
+  <si>
+    <t>Aggregator_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1661</t>
+  </si>
+  <si>
     <t>₹775.97</t>
   </si>
   <si>
@@ -124,7 +459,7 @@
     <t>₹2,169.35</t>
   </si>
   <si>
-    <t>ITPL</t>
+    <t xml:space="preserve"> ₹1712</t>
   </si>
   <si>
     <t>₹538.49</t>
@@ -136,7 +471,7 @@
     <t>₹1,451.91</t>
   </si>
   <si>
-    <t>ECITY</t>
+    <t xml:space="preserve"> ₹2065</t>
   </si>
   <si>
     <t>₹836.05</t>
@@ -148,21 +483,12 @@
     <t>₹2,071.87</t>
   </si>
   <si>
-    <t>Manyata</t>
-  </si>
-  <si>
     <t>₹570.77</t>
   </si>
   <si>
     <t>₹744.78</t>
   </si>
   <si>
-    <t>₹1,477.83</t>
-  </si>
-  <si>
-    <t>Bannarghatta</t>
-  </si>
-  <si>
     <t>₹737.56</t>
   </si>
   <si>
@@ -172,7 +498,7 @@
     <t>₹1,915.72</t>
   </si>
   <si>
-    <t>Majestic</t>
+    <t xml:space="preserve"> ₹1491</t>
   </si>
   <si>
     <t>₹608.95</t>
@@ -184,12 +510,18 @@
     <t>₹1,578.06</t>
   </si>
   <si>
+    <t xml:space="preserve"> ₹1001</t>
+  </si>
+  <si>
     <t>₹1,414.90</t>
   </si>
   <si>
     <t>₹1,792.42</t>
   </si>
   <si>
+    <t xml:space="preserve"> ₹1074</t>
+  </si>
+  <si>
     <t>₹1,147.63</t>
   </si>
   <si>
@@ -202,6 +534,9 @@
     <t>₹2,143.65</t>
   </si>
   <si>
+    <t xml:space="preserve"> ₹814</t>
+  </si>
+  <si>
     <t>₹1,011.99</t>
   </si>
   <si>
@@ -214,232 +549,13 @@
     <t>₹1,857.66</t>
   </si>
   <si>
+    <t xml:space="preserve"> ₹907</t>
+  </si>
+  <si>
     <t>₹1,129.85</t>
   </si>
   <si>
     <t>₹1,467.82</t>
-  </si>
-  <si>
-    <t>Ola</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹799</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹899</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1661</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1712</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹962</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1062</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹2065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹599</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹699</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1327</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1491</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹956</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1704</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1029</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1074</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1828</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1386</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1837</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹770</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹814</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1315</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹864</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹907</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1475</t>
-  </si>
-  <si>
-    <t>₹930.16</t>
-  </si>
-  <si>
-    <t>₹1,341.81</t>
-  </si>
-  <si>
-    <t>₹2,020.28</t>
-  </si>
-  <si>
-    <t>₹727.95</t>
-  </si>
-  <si>
-    <t>₹1,097.38</t>
-  </si>
-  <si>
-    <t>₹1,726.79</t>
-  </si>
-  <si>
-    <t>₹1,077.05</t>
-  </si>
-  <si>
-    <t>₹1,577.67</t>
-  </si>
-  <si>
-    <t>₹2,261.16</t>
-  </si>
-  <si>
-    <t>₹674.34</t>
-  </si>
-  <si>
-    <t>₹953.44</t>
-  </si>
-  <si>
-    <t>₹955.36</t>
-  </si>
-  <si>
-    <t>₹1,380.07</t>
-  </si>
-  <si>
-    <t>₹2,073.72</t>
-  </si>
-  <si>
-    <t>₹744.59</t>
-  </si>
-  <si>
-    <t>₹1,078.79</t>
-  </si>
-  <si>
-    <t>₹1,626.79</t>
-  </si>
-  <si>
-    <t>₹1,087.53</t>
-  </si>
-  <si>
-    <t>₹1,630.05</t>
-  </si>
-  <si>
-    <t>₹2,019.52</t>
-  </si>
-  <si>
-    <t>₹1,409.67</t>
-  </si>
-  <si>
-    <t>₹1,567.83</t>
-  </si>
-  <si>
-    <t>₹2,780.48</t>
-  </si>
-  <si>
-    <t>₹3,135.79</t>
-  </si>
-  <si>
-    <t>₹1,403.05</t>
-  </si>
-  <si>
-    <t>₹1,396.60</t>
-  </si>
-  <si>
-    <t>₹1,697.18</t>
-  </si>
-  <si>
-    <t>₹2,092.00</t>
-  </si>
-  <si>
-    <t>₹874.81</t>
-  </si>
-  <si>
-    <t>₹1,222.17</t>
-  </si>
-  <si>
-    <t>₹1,526.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹2369</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹2739</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1571</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1564</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1218</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1249</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹2170</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹805</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹968</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1541</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹903</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1082</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ₹1731</t>
-  </si>
-  <si>
-    <t>Aggregator_1</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -502,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,6 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +646,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Shireen M" refreshedDate="45505.501807754626" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{25028EEB-97D6-48F3-BFFC-24DDA566B75A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Shireen M" refreshedDate="45505.686042939815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{25028EEB-97D6-48F3-BFFC-24DDA566B75A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G13" sheet="Output - Ola"/>
   </cacheSource>
@@ -1110,7 +1228,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1238,7 +1356,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1493,7 +1611,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1651,9 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5">
+        <v>45505.673158819402</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1674,9 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5">
+        <v>45505.674257002298</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1697,9 @@
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5">
+        <v>45505.675338252302</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1596,7 +1720,9 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5">
+        <v>45505.676414224501</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1743,9 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5">
+        <v>45505.677503298597</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1766,9 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="5">
+        <v>45505.678492453699</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1789,9 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="5">
+        <v>45505.679595243098</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1680,7 +1812,9 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="5">
+        <v>45505.680724942104</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1701,7 +1835,9 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5">
+        <v>45505.681816307901</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1722,7 +1858,9 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="5">
+        <v>45505.682929918999</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1881,9 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="5">
+        <v>45505.684007708303</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1764,7 +1904,9 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5">
+        <v>45505.684802210599</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1930,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I17" sqref="I17 A2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1969,9 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5">
+        <v>45505.6736606829</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
@@ -1848,7 +1992,9 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5">
+        <v>45505.674756909699</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
@@ -1869,7 +2015,9 @@
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5">
+        <v>45505.675841203702</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1890,7 +2038,9 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5">
+        <v>45505.676916944401</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1911,7 +2061,9 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5">
+        <v>45505.677904664299</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1926,7 +2078,9 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="5">
+        <v>45505.678994826398</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1947,7 +2101,9 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="5">
+        <v>45505.680136875002</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
@@ -1968,7 +2124,9 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="5">
+        <v>45505.681225624998</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1989,18 +2147,20 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5">
+        <v>45505.682353703698</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,18 +2170,20 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="5">
+        <v>45505.6834316319</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,7 +2193,9 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="5">
+        <v>45505.684216944399</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
@@ -2046,12 +2210,14 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5">
+        <v>45505.685303935199</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>81</v>
@@ -2182,7 +2348,7 @@
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2196,13 +2362,13 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2216,13 +2382,13 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2236,13 +2402,13 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2256,13 +2422,13 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2276,13 +2442,13 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2296,13 +2462,13 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2316,13 +2482,13 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2336,13 +2502,13 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,7 +2528,7 @@
         <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2548,7 @@
         <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,7 +2568,7 @@
         <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2422,7 +2588,7 @@
         <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2442,7 +2608,7 @@
         <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2456,13 +2622,13 @@
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2479,10 +2645,10 @@
         <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2496,13 +2662,13 @@
         <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2516,13 +2682,13 @@
         <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2536,13 +2702,13 @@
         <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -2607,19 +2773,19 @@
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2639,19 +2805,19 @@
         <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2671,19 +2837,19 @@
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2703,19 +2869,19 @@
         <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,13 +2898,13 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2758,19 +2924,19 @@
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2787,7 +2953,7 @@
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>71</v>
@@ -2796,13 +2962,13 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,7 +2985,7 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -2828,13 +2994,13 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,25 +3014,25 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2880,25 +3046,25 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,13 +3081,13 @@
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2935,10 +3101,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2947,13 +3113,13 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2965,6 +3131,963 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45505.6736606829</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45505.674756909699</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45505.675841203702</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45505.676916944401</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45505.677904664299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45505.678994826398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45505.680136875002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45505.681225624998</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45505.682353703698</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45505.6834316319</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45505.684216944399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45505.685303935199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,6 +4131,9 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="6">
+        <v>45505.673158819402</v>
+      </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
@@ -3028,6 +4154,9 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
+      <c r="C3" s="6">
+        <v>45505.674257002298</v>
+      </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
@@ -3048,6 +4177,9 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
+      <c r="C4" s="6">
+        <v>45505.675338252302</v>
+      </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
@@ -3068,6 +4200,9 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
+      <c r="C5" s="6">
+        <v>45505.676414224501</v>
+      </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
@@ -3088,6 +4223,9 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
+      <c r="C6" s="6">
+        <v>45505.677503298597</v>
+      </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
@@ -3107,6 +4245,9 @@
       </c>
       <c r="B7" t="s">
         <v>41</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45505.678492453699</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -3128,6 +4269,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="6">
+        <v>45505.679595243098</v>
+      </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
@@ -3148,6 +4292,9 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="6">
+        <v>45505.680724942104</v>
+      </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
@@ -3168,6 +4315,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="6">
+        <v>45505.681816307901</v>
+      </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
@@ -3188,6 +4338,9 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="6">
+        <v>45505.682929918999</v>
+      </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
@@ -3208,6 +4361,9 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="6">
+        <v>45505.684007708303</v>
+      </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
@@ -3228,6 +4384,9 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="6">
+        <v>45505.684802210599</v>
+      </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
@@ -3248,6 +4407,9 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" s="6">
+        <v>45505.6736606829</v>
+      </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
@@ -3268,6 +4430,9 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
+      <c r="C15" s="6">
+        <v>45505.674756909699</v>
+      </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
@@ -3288,6 +4453,9 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
+      <c r="C16" s="6">
+        <v>45505.675841203702</v>
+      </c>
       <c r="D16" t="s">
         <v>57</v>
       </c>
@@ -3308,6 +4476,9 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
+      <c r="C17" s="6">
+        <v>45505.676916944401</v>
+      </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
@@ -3328,6 +4499,9 @@
       <c r="B18" t="s">
         <v>37</v>
       </c>
+      <c r="C18" s="6">
+        <v>45505.677904664299</v>
+      </c>
       <c r="D18" t="s">
         <v>57</v>
       </c>
@@ -3338,6 +4512,9 @@
       </c>
       <c r="B19" t="s">
         <v>41</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45505.678994826398</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -3359,6 +4536,9 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="6">
+        <v>45505.680136875002</v>
+      </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
@@ -3379,6 +4559,9 @@
       <c r="B21" t="s">
         <v>19</v>
       </c>
+      <c r="C21" s="6">
+        <v>45505.681225624998</v>
+      </c>
       <c r="D21" t="s">
         <v>57</v>
       </c>
@@ -3399,17 +4582,20 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="C22" s="6">
+        <v>45505.682353703698</v>
+      </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3419,17 +4605,20 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
+      <c r="C23" s="6">
+        <v>45505.6834316319</v>
+      </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3439,6 +4628,9 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
+      <c r="C24" s="6">
+        <v>45505.684216944399</v>
+      </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
@@ -3450,11 +4642,14 @@
       <c r="B25" t="s">
         <v>19</v>
       </c>
+      <c r="C25" s="6">
+        <v>45505.685303935199</v>
+      </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
         <v>81</v>
@@ -3756,6 +4951,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
@@ -3768,15 +4972,6 @@
     <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3799,6 +4994,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A558932-1697-412E-9163-F3B79627D920}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AA2011-625B-4FD8-80D4-3D79859E0C98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3807,12 +5010,4 @@
     <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A558932-1697-412E-9163-F3B79627D920}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>